--- a/biology/Botanique/Molène_lychnite/Molène_lychnite.xlsx
+++ b/biology/Botanique/Molène_lychnite/Molène_lychnite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_lychnite</t>
+          <t>Molène_lychnite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum lychnitis
 La molène lychnite (Verbascum lychnitis) est une plante herbacée du genre Verbascum et de la famille des Scrofulariacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_lychnite</t>
+          <t>Molène_lychnite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette molène a une inflorescence très ramifiée. Elle se rencontre dans les pelouses, les clairières et sur les bords de chemins. Sa forme la plus classique présente des fleurs blanches. Néanmoins en France dans le département des Alpes du Sud et de la Lozère , la molène lychnite a des fleurs jaunes.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Molène_lychnite</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_lychnite</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, jaune
 Période de floraison : juillet-octobre
 Inflorescence : racème d'épis
